--- a/Running projects/TOMO II/section.02.xlsx
+++ b/Running projects/TOMO II/section.02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xls\Sent BOQ\TOMO II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\TOMO II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C08947-F8F6-4069-A1D4-65B0DFF6E689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37C055E-8C52-450C-8369-9D60C3CDED01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <r>
       <rPr>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <t>TOTAL COST AFTER DISCOUNT                                                                                                               Rs.</t>
+  </si>
+  <si>
+    <t>Deal Locked</t>
+  </si>
+  <si>
+    <t>Mob adv</t>
   </si>
 </sst>
 </file>
@@ -421,7 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -470,44 +476,50 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -816,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -831,15 +843,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
@@ -1248,7 +1260,7 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>15</v>
       </c>
@@ -1379,10 +1391,10 @@
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="26"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="5"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1396,12 +1408,12 @@
       <c r="A28" s="11">
         <v>21</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="8">
         <v>1200000</v>
       </c>
@@ -1411,12 +1423,12 @@
       <c r="A29" s="11">
         <v>22</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="8">
         <v>0</v>
       </c>
@@ -1426,12 +1438,12 @@
       <c r="A30" s="11">
         <v>23</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="8">
         <v>0</v>
       </c>
@@ -1441,12 +1453,12 @@
       <c r="A31" s="11">
         <v>24</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
       <c r="F31" s="8">
         <v>30000</v>
       </c>
@@ -1456,12 +1468,12 @@
       <c r="A32" s="11">
         <v>25</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="8">
         <v>90000</v>
       </c>
@@ -1471,12 +1483,12 @@
       <c r="A33" s="11">
         <v>26</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="8">
         <v>75000</v>
       </c>
@@ -1486,25 +1498,25 @@
       <c r="A34" s="11">
         <v>27</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="8">
         <v>100000</v>
       </c>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="13">
         <f>F34+F33+F32+F31+F28+F27</f>
         <v>11329000</v>
@@ -1512,26 +1524,26 @@
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="13">
         <v>2129000</v>
       </c>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="13">
         <f>F35-F36</f>
         <v>9200000</v>
@@ -1539,68 +1551,68 @@
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
     </row>
     <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
     </row>
     <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
     </row>
     <row r="42" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
     </row>
     <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
@@ -1608,7 +1620,7 @@
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="F44" s="29"/>
       <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1616,8 +1628,12 @@
       <c r="B45" s="7"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="30">
+        <v>8263000</v>
+      </c>
       <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1634,8 +1650,13 @@
       <c r="B47" s="7"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="29">
+        <f>F45*20%</f>
+        <v>1652600</v>
+      </c>
       <c r="G47" s="7"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1775,6 +1796,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A43:G43"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="A1:G1"/>
@@ -1787,11 +1813,6 @@
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A43:G43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Running projects/TOMO II/section.02.xlsx
+++ b/Running projects/TOMO II/section.02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\TOMO II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37C055E-8C52-450C-8369-9D60C3CDED01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C18407-74C5-42D7-AD32-740F7F57EDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 1'!$A$1:$F$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Table 1'!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <r>
       <rPr>
@@ -278,6 +278,30 @@
   </si>
   <si>
     <t>Mob adv</t>
+  </si>
+  <si>
+    <t>Bill Verified</t>
+  </si>
+  <si>
+    <t>Discount 18.79%</t>
+  </si>
+  <si>
+    <t>Further discount 10.18%</t>
+  </si>
+  <si>
+    <t>Less Mod Adv 20%</t>
+  </si>
+  <si>
+    <t>Less Ret 5%</t>
+  </si>
+  <si>
+    <t>Discount Amount should be</t>
+  </si>
+  <si>
+    <t>Discount Amount Actual deduct</t>
+  </si>
+  <si>
+    <t>Balance</t>
   </si>
 </sst>
 </file>
@@ -362,7 +386,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -422,12 +446,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -482,6 +521,18 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -515,11 +566,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -826,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48:L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -839,21 +893,25 @@
     <col min="3" max="3" width="20.1640625" style="10" customWidth="1"/>
     <col min="4" max="6" width="27.33203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="5.83203125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.33203125" style="4"/>
+    <col min="8" max="8" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.33203125" style="4"/>
+    <col min="11" max="11" width="37.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" style="21" customWidth="1"/>
+    <col min="13" max="16384" width="9.33203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -872,8 +930,9 @@
       <c r="F2" s="15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L2" s="33"/>
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -892,8 +951,9 @@
       <c r="F3" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -913,7 +973,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -933,7 +993,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -953,7 +1013,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -975,7 +1035,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -997,7 +1057,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1019,7 +1079,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1041,7 +1101,7 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1063,7 +1123,7 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1085,7 +1145,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1098,7 +1158,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1122,7 +1182,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1146,7 +1206,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1391,10 +1451,10 @@
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="5"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1408,12 +1468,12 @@
       <c r="A28" s="11">
         <v>21</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="8">
         <v>1200000</v>
       </c>
@@ -1423,12 +1483,12 @@
       <c r="A29" s="11">
         <v>22</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="8">
         <v>0</v>
       </c>
@@ -1438,12 +1498,12 @@
       <c r="A30" s="11">
         <v>23</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="8">
         <v>0</v>
       </c>
@@ -1453,12 +1513,12 @@
       <c r="A31" s="11">
         <v>24</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="8">
         <v>30000</v>
       </c>
@@ -1468,89 +1528,96 @@
       <c r="A32" s="11">
         <v>25</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="8">
         <v>90000</v>
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>26</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
       <c r="F33" s="8">
         <v>75000</v>
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>27</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="8">
         <v>100000</v>
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
+    <row r="35" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="13">
         <f>F34+F33+F32+F31+F28+F27</f>
         <v>11329000</v>
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
+    <row r="36" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="13">
         <v>2129000</v>
       </c>
       <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
+      <c r="H36" s="20">
+        <f>F35*18.79%</f>
+        <v>2128719.0999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="13">
         <f>F35-F36</f>
         <v>9200000</v>
       </c>
       <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="21">
+        <v>9200000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -1559,71 +1626,71 @@
       <c r="F38" s="17"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="27" t="s">
+    <row r="39" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-    </row>
-    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="28" t="s">
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+    </row>
+    <row r="40" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-    </row>
-    <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="28" t="s">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+    </row>
+    <row r="41" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-    </row>
-    <row r="42" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="28" t="s">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+    </row>
+    <row r="42" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-    </row>
-    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="28" t="s">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+    </row>
+    <row r="43" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="29"/>
+      <c r="F44" s="18"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="6"/>
@@ -1631,12 +1698,16 @@
       <c r="E45" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="19">
         <v>8263000</v>
       </c>
       <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" s="20">
+        <f>H37*10.18%</f>
+        <v>936560</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="6"/>
@@ -1645,7 +1716,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="6"/>
@@ -1653,13 +1724,17 @@
       <c r="E47" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F47" s="29">
+      <c r="F47" s="18">
         <f>F45*20%</f>
         <v>1652600</v>
       </c>
       <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" s="20">
+        <f>H37-H45</f>
+        <v>8263440</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="6"/>
@@ -1667,8 +1742,14 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K48" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="L48" s="35">
+        <v>8069970</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="6"/>
@@ -1676,8 +1757,15 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K49" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="L49" s="35">
+        <f>L48*18.79%</f>
+        <v>1516347.3629999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="6"/>
@@ -1685,8 +1773,13 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K50" s="34"/>
+      <c r="L50" s="35">
+        <f>L48-L49</f>
+        <v>6553622.6370000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="6"/>
@@ -1694,8 +1787,15 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K51" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="L51" s="35">
+        <f>L50*10.18%</f>
+        <v>667158.78444660001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="6"/>
@@ -1703,8 +1803,13 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K52" s="34"/>
+      <c r="L52" s="35">
+        <f>L50-L51</f>
+        <v>5886463.8525534002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="6"/>
@@ -1712,8 +1817,14 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K53" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="L53" s="35">
+        <v>1652600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="6"/>
@@ -1721,8 +1832,13 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K54" s="34"/>
+      <c r="L54" s="35">
+        <f>L52-L53</f>
+        <v>4233863.8525534002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="6"/>
@@ -1730,8 +1846,15 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K55" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="L55" s="35">
+        <f>L54*5%</f>
+        <v>211693.19262767001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="6"/>
@@ -1739,8 +1862,13 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K56" s="34"/>
+      <c r="L56" s="35">
+        <f>L54-L55</f>
+        <v>4022170.65992573</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="6"/>
@@ -1749,7 +1877,7 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="6"/>
@@ -1758,7 +1886,7 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="6"/>
@@ -1767,7 +1895,7 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="6"/>
@@ -1775,8 +1903,15 @@
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K60" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L60" s="21">
+        <f>L51+L49</f>
+        <v>2183506.1474465998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="6"/>
@@ -1784,8 +1919,14 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K61" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L61" s="21">
+        <v>2337870</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="6"/>
@@ -1793,6 +1934,13 @@
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
+      <c r="K62" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L62" s="21">
+        <f>L61-L60</f>
+        <v>154363.85255340021</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
